--- a/RACKI.xlsx
+++ b/RACKI.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="549">
   <si>
     <t>A 1</t>
   </si>
@@ -67,7 +67,7 @@
     <t>GOPINATH KATAKAM</t>
   </si>
   <si>
-    <t>TATA MCGRAW-HILL </t>
+    <t>TATA MCGRAW-HILL</t>
   </si>
   <si>
     <t>ISBN 0-07-462211-0</t>
@@ -286,7 +286,7 @@
     <t>A 19</t>
   </si>
   <si>
-    <t>MUGAL ARCHITECTURE OF DELHI</t>
+    <t>MUGAL ARCHITECTURE OF DELHI - A STUDY OF MOSQUES AND TOMBS</t>
   </si>
   <si>
     <t>PRADUMAN K. SHARMA</t>
@@ -298,9 +298,6 @@
     <t>ISBN 81-7574-094-9</t>
   </si>
   <si>
-    <t>A STUDY OF MOSQUES AND TOMBS</t>
-  </si>
-  <si>
     <t>A 20</t>
   </si>
   <si>
@@ -574,7 +571,7 @@
     <t>A.G. KRISHNA MENON</t>
   </si>
   <si>
-    <t>INTACH </t>
+    <t>INTACH</t>
   </si>
   <si>
     <t>A 43</t>
@@ -599,9 +596,6 @@
   </si>
   <si>
     <t>THE THEIR DAM</t>
-  </si>
-  <si>
-    <t>INTACH</t>
   </si>
   <si>
     <t>A 46</t>
@@ -927,7 +921,7 @@
     <t>A 77</t>
   </si>
   <si>
-    <t>FRANK LLOYD WRIGHT -</t>
+    <t>FRANK LLOYD WRIGHT - A VISUAL ENCYCLOPEDIA</t>
   </si>
   <si>
     <t>IAIN THOMSON</t>
@@ -939,12 +933,6 @@
     <t>ISBN 1-84013-240-X</t>
   </si>
   <si>
-    <t>A VISUAL ENCYCLOPEDIA</t>
-  </si>
-  <si>
-    <t>ISBN 0-500-27964-0</t>
-  </si>
-  <si>
     <t>A 78</t>
   </si>
   <si>
@@ -1122,7 +1110,7 @@
     <t>A 94</t>
   </si>
   <si>
-    <t> ACTIVATION  MEGALOPOLLIS</t>
+    <t>ACTIVATION  MEGALOPOLLIS</t>
   </si>
   <si>
     <t>A 95</t>
@@ -1230,7 +1218,7 @@
     <t>A 104a</t>
   </si>
   <si>
-    <t>A HOUSE ON THE WATER </t>
+    <t>A HOUSE ON THE WATER</t>
   </si>
   <si>
     <t>ROBERT W KNIGHT</t>
@@ -1293,7 +1281,7 @@
     <t>KATHRYN McCAMAND</t>
   </si>
   <si>
-    <t>TEN SPEED PRESS </t>
+    <t>TEN SPEED PRESS</t>
   </si>
   <si>
     <t>ISBN 0-89815-539-8</t>
@@ -1305,7 +1293,7 @@
     <t>INTRODUCING REVIT ARCHITECTURE 2000</t>
   </si>
   <si>
-    <t>EDDY KRYGIEL, GREG </t>
+    <t>EDDY KRYGIEL, GREG</t>
   </si>
   <si>
     <t>WILEY INDIA PVT LTD</t>
@@ -1371,7 +1359,7 @@
     <t>ERICK VAN EGERRET</t>
   </si>
   <si>
-    <t>EEA IMAGES </t>
+    <t>EEA IMAGES</t>
   </si>
   <si>
     <t>ISBN 1-86470-1-5</t>
@@ -1416,7 +1404,7 @@
     <t>A 125</t>
   </si>
   <si>
-    <t>ISBN </t>
+    <t>ISBN</t>
   </si>
   <si>
     <t>A 126 a</t>
@@ -1536,7 +1524,7 @@
     <t>CITIES : STEERING TOWARDS SUSTAINABILITY</t>
   </si>
   <si>
-    <t>RAJENDRA ,LAURENCE </t>
+    <t>RAJENDRA ,LAURENCE</t>
   </si>
   <si>
     <t>AFD.IDDRI.TERI</t>
@@ -1687,9 +1675,10 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -1713,12 +1702,6 @@
       <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
@@ -1761,7 +1744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -1770,17 +1753,10 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
@@ -1791,14 +1767,14 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
@@ -1830,7 +1806,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -1839,9 +1815,6 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -1861,18 +1834,16 @@
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0">
@@ -1889,49 +1860,38 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="4" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2011,17 +1971,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A82" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E2" activeCellId="0" pane="topLeft" sqref="E2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A66" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A82" activeCellId="0" pane="topLeft" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,14 +1994,14 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="2">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2054,14 +2014,14 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="3">
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2074,14 +2034,14 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="4">
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2094,14 +2054,14 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="5">
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2114,14 +2074,14 @@
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="6">
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2134,14 +2094,14 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="7">
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2154,14 +2114,14 @@
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="8">
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2174,14 +2134,14 @@
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="9">
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2194,30 +2154,30 @@
       <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="10">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="10">
+      <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="11">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -2228,14 +2188,14 @@
         <v>41</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="12">
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -2246,14 +2206,14 @@
         <v>41</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="13">
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2267,11 +2227,11 @@
         <v>48</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="14">
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2285,11 +2245,11 @@
         <v>52</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="15">
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2303,11 +2263,11 @@
         <v>56</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="16">
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -2319,11 +2279,11 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="17">
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -2336,14 +2296,14 @@
       <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="18">
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -2356,14 +2316,14 @@
       <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="19">
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -2376,54 +2336,54 @@
       <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="5" t="s">
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="5" t="s">
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="22">
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -2436,602 +2396,606 @@
       <c r="D22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="5" t="s">
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="A23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10" t="s">
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="24">
+      <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="25">
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="26">
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="27">
+        <v>104</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="28">
+        <v>109</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="29">
+        <v>114</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="30">
-      <c r="A30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="30">
+      <c r="A30" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="31">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="32">
+      <c r="B31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="33">
+        <v>72</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="34">
+        <v>134</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="35">
+        <v>138</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="36">
+        <v>143</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="37">
+        <v>147</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="38">
+        <v>151</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D38" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="39">
+        <v>155</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="40">
-      <c r="A40" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="40">
+      <c r="A40" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="41">
-      <c r="A41" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="41">
+      <c r="A41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="42">
-      <c r="A42" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="42">
+      <c r="A42" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="43">
-      <c r="A43" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="43">
+      <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="44">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E43" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="F43" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="44">
+      <c r="A44" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="45">
-      <c r="A45" s="18" t="s">
+      <c r="B44" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="21" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="45">
+      <c r="A45" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="46">
-      <c r="A46" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="46">
+      <c r="A46" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="47">
+      <c r="B46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="48">
+      <c r="A48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="48">
-      <c r="A48" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="49">
-      <c r="A49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="F48" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="49">
+      <c r="A49" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="50">
-      <c r="A50" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C49" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="50">
+      <c r="A50" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="51">
+      <c r="C50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="52">
+      <c r="E51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="53">
+      <c r="E52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="54">
+      <c r="E53" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="E54" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="55">
+      <c r="E54" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D55" s="3"/>
-      <c r="E55" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="56">
+      <c r="E55" s="3"/>
+      <c r="F55" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
         <v>211</v>
       </c>
@@ -3039,15 +3003,15 @@
         <v>212</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="57">
+      <c r="F56" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
         <v>213</v>
       </c>
@@ -3055,55 +3019,53 @@
         <v>214</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="58">
+        <v>215</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="59">
+        <v>220</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E59" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="60">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
         <v>225</v>
       </c>
@@ -3113,1642 +3075,1612 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="61">
+      <c r="F60" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="62">
+      <c r="E61" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="91" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="63">
+      <c r="E62" s="3"/>
+      <c r="F62" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="91" outlineLevel="0" r="63">
       <c r="A63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="64">
-      <c r="A64" s="1" t="s">
+      <c r="F63" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64">
+      <c r="A64" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
-      <c r="A65" s="21" t="s">
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65">
+      <c r="A65" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
-      <c r="A66" s="5" t="s">
+      <c r="C65" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66">
+      <c r="A66" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
-      <c r="A67" s="5" t="s">
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
+      <c r="A67" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
-      <c r="A68" s="5" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="68">
+      <c r="A68" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
-      <c r="A69" s="5" t="s">
+      <c r="C68" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="69">
+      <c r="A69" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
-      <c r="A70" s="5" t="s">
+      <c r="C69" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="E69" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="F69" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="70">
+      <c r="A70" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="B70" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
-      <c r="A71" s="5" t="s">
+      <c r="C70" s="10"/>
+      <c r="D70" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="F70" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="71">
+      <c r="A71" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="13" t="s">
+      <c r="B71" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
-      <c r="A72" s="5" t="s">
+      <c r="C71" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="E71" s="10"/>
+      <c r="F71" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="72">
+      <c r="A72" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="B72" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
-      <c r="A73" s="5" t="s">
+      <c r="C72" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="13" t="s">
+      <c r="F72" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="73">
+      <c r="A73" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="B73" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
-      <c r="A74" s="5" t="s">
+      <c r="C73" s="10"/>
+      <c r="D73" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="13" t="s">
+      <c r="F73" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="74">
+      <c r="A74" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="B74" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
-      <c r="A75" s="5" t="s">
+      <c r="C74" s="10"/>
+      <c r="D74" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="13" t="s">
+      <c r="F74" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="75">
+      <c r="A75" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="B75" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
-      <c r="A76" s="5" t="s">
+      <c r="C75" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="D75" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="E75" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="F75" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="76">
+      <c r="A76" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="B76" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
-      <c r="A77" s="5" t="s">
+      <c r="C76" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="D76" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="E76" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="F76" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="77">
+      <c r="A77" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="B77" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
-      <c r="A78" s="5" t="s">
+      <c r="C77" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="D77" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="E77" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="F77" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="78">
+      <c r="A78" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="B78" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
-      <c r="A79" s="5" t="s">
+      <c r="C78" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="D78" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="E78" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="F78" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="79">
+      <c r="A79" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="B79" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
-      <c r="A80" s="5" t="s">
+      <c r="C79" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="D79" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="E79" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="F79" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="80">
+      <c r="A80" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="B80" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
-      <c r="A81" s="5" t="s">
+      <c r="C80" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="E80" s="10"/>
+      <c r="F80" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="81">
+      <c r="A81" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="B81" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
-      <c r="A82" s="5" t="s">
+      <c r="C81" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="D81" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="E81" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="F81" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="82">
+      <c r="A82" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="B82" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
-      <c r="A83" s="5"/>
-      <c r="B83" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="13" t="s">
+      <c r="D82" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="83">
+      <c r="A83" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="84">
+      <c r="A84" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="85">
+      <c r="A85" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="86">
+      <c r="A86" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="87">
+      <c r="A87" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="88">
+      <c r="A88" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="89">
+      <c r="A89" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="90">
+      <c r="A90" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="91">
+      <c r="A91" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="92">
+      <c r="A92" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="93">
+      <c r="A93" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="94">
+      <c r="A94" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="95">
+      <c r="A95" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="96">
+      <c r="A96" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="97">
+      <c r="A97" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
-      <c r="A84" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
-      <c r="A85" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
-      <c r="A86" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
-      <c r="A87" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
-      <c r="A88" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
-      <c r="A89" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
-      <c r="A90" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
-      <c r="A91" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
-      <c r="A92" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
-      <c r="A93" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
-      <c r="A94" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
-      <c r="A95" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
-      <c r="A96" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B96" s="10" t="s">
+      <c r="E97" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="98">
+      <c r="A98" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="99">
+      <c r="A99" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C99" s="22"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="100">
+      <c r="A100" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="101">
+      <c r="A101" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="102">
+      <c r="A102" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103">
+      <c r="A103" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="104">
+      <c r="A104" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="105">
+      <c r="A105" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="106">
+      <c r="A106" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="107">
+      <c r="A107" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="108">
+      <c r="A108" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="109">
+      <c r="A109" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="110">
+      <c r="A110" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="111">
+      <c r="A111" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="112">
+      <c r="A112" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="113">
+      <c r="A113" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
-      <c r="A97" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
-      <c r="A98" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="99">
-      <c r="A99" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D99" s="13" t="s">
+      <c r="D113" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="114">
+      <c r="A114" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="115">
+      <c r="A115" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E99" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
-      <c r="A100" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="101">
-      <c r="A101" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
-      <c r="A102" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
-      <c r="A103" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
-      <c r="A104" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
-      <c r="A105" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="106">
-      <c r="A106" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B106" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="107">
-      <c r="A107" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
-      <c r="A108" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="109">
-      <c r="A109" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="110">
-      <c r="A110" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="111">
-      <c r="A111" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="112">
-      <c r="A112" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="113">
-      <c r="A113" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B113" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="114">
-      <c r="A114" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="115">
-      <c r="A115" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="116">
+        <v>416</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B116" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="117">
+        <v>417</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="118">
+      <c r="A118" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="119">
+      <c r="A119" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F117" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="118">
-      <c r="A118" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F118" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="119">
-      <c r="A119" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F119" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="120">
+        <v>434</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F120" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="121">
+        <v>435</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B121" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="122">
+      <c r="A122" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E121" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F121" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="122">
-      <c r="A122" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="123">
+      <c r="F122" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="124">
+      <c r="D123" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F123" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="125">
+        <v>444</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F124" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F125" s="37"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="126">
+        <v>451</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>449</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F126" s="37"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="127">
+        <v>455</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D127" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="E127" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F127" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="128">
+        <v>459</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>457</v>
+        <v>380</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="2" t="s">
-        <v>458</v>
-      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F128" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="129">
+        <v>461</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>197</v>
+        <v>465</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F129" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="130">
+        <v>466</v>
+      </c>
+      <c r="F129" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
       <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="D130" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="E130" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F130" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="131">
+        <v>470</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F131" s="37"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="132">
+        <v>474</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C132" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="D132" s="2" t="s">
-        <v>473</v>
+        <v>68</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F132" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="133">
+        <v>478</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>478</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
       <c r="E133" s="2"/>
-      <c r="F133" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="134">
+      <c r="F133" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>68</v>
+        <v>484</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="135">
+      <c r="A135" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F134" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="135">
-      <c r="A135" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B135" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="136">
+      <c r="E135" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F136" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="137">
+        <v>493</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F137" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="138">
+        <v>498</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F138" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="139">
+        <v>503</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>500</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F139" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="140">
+        <v>506</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>505</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F140" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="141">
-      <c r="A141" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="141">
+      <c r="A141" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F141" s="37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="142">
-      <c r="A142" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B142" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2" t="s">
+      <c r="C141" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="D141" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="F142" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="143">
-      <c r="A143" s="38" t="s">
+      <c r="E141" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="F141" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="142">
+      <c r="A142" s="32" t="s">
         <v>516</v>
       </c>
-      <c r="C143" s="39" t="s">
+      <c r="B142" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="D143" s="39" t="s">
+      <c r="C142" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="E143" s="39" t="s">
+      <c r="D142" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E142" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="F143" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="144">
-      <c r="A144" s="40" t="s">
+      <c r="F142" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="143">
+      <c r="A143" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="B144" s="41" t="s">
+      <c r="B143" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="C144" s="41" t="s">
+      <c r="C143" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="D144" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E144" s="41" t="s">
+      <c r="D143" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E143" s="29" t="s">
         <v>523</v>
       </c>
+      <c r="F143" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="144">
+      <c r="A144" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>528</v>
+      </c>
       <c r="F144" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="145">
-      <c r="A145" s="40" t="s">
-        <v>524</v>
-      </c>
-      <c r="B145" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="C145" s="41" t="s">
-        <v>526</v>
-      </c>
-      <c r="D145" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>527</v>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="145">
+      <c r="A145" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="D145" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="E145" s="29" t="s">
+        <v>533</v>
       </c>
       <c r="F145" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="35.05" outlineLevel="0" r="146">
-      <c r="A146" s="40" t="s">
-        <v>528</v>
-      </c>
-      <c r="B146" s="41" t="s">
-        <v>529</v>
-      </c>
-      <c r="C146" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="D146" s="41" t="s">
-        <v>531</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>532</v>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="102.2" outlineLevel="0" r="146">
+      <c r="A146" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>537</v>
       </c>
       <c r="F146" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="147">
-      <c r="A147" s="40" t="s">
-        <v>533</v>
-      </c>
-      <c r="B147" s="41" t="s">
-        <v>534</v>
-      </c>
-      <c r="C147" s="41" t="s">
-        <v>535</v>
-      </c>
-      <c r="D147" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>537</v>
-      </c>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="147">
+      <c r="A147" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="B147" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="C147" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="D147" s="31"/>
       <c r="F147" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="148">
-      <c r="A148" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="B148" s="41" t="s">
-        <v>539</v>
-      </c>
-      <c r="C148" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="D148" s="41" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="148">
+      <c r="A148" s="32" t="s">
         <v>541</v>
       </c>
+      <c r="B148" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31" t="s">
+        <v>543</v>
+      </c>
       <c r="F148" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="149">
-      <c r="A149" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="B149" s="42" t="s">
-        <v>543</v>
-      </c>
-      <c r="C149" s="36" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="149">
+      <c r="A149" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="D149" s="36"/>
+      <c r="B149" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="C149" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="D149" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>548</v>
+      </c>
       <c r="F149" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="150">
-      <c r="A150" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="B150" s="42" t="s">
-        <v>546</v>
-      </c>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="F150" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="151">
-      <c r="A151" s="40" t="s">
-        <v>548</v>
-      </c>
-      <c r="B151" s="42" t="s">
-        <v>549</v>
-      </c>
-      <c r="C151" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="D151" s="36" t="s">
-        <v>551</v>
-      </c>
-      <c r="E151" s="33" t="s">
-        <v>552</v>
-      </c>
-      <c r="F151" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4770,17 +4702,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4795,17 +4727,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/RACKI.xlsx
+++ b/RACKI.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="547">
   <si>
     <t>A 1</t>
   </si>
@@ -1324,12 +1324,6 @@
   </si>
   <si>
     <t>ISBN 0-500-34187-7</t>
-  </si>
-  <si>
-    <t>A 114</t>
-  </si>
-  <si>
-    <t>A 115</t>
   </si>
   <si>
     <t>A 116</t>
@@ -1971,14 +1965,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A66" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A82" activeCellId="0" pane="topLeft" sqref="A82"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A139" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B124" activeCellId="0" pane="topLeft" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="1">
@@ -4149,11 +4143,13 @@
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>436</v>
+      </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -4161,526 +4157,500 @@
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B121" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="122">
+      <c r="D121" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F121" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="123">
+        <v>442</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2" t="s">
-        <v>441</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F123" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="124">
+        <v>449</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F124" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="125">
+        <v>453</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D125" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="E125" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>453</v>
+        <v>380</v>
       </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>195</v>
+        <v>463</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="128">
+        <v>464</v>
+      </c>
+      <c r="F127" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="E128" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F129" s="4"/>
+        <v>472</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C130" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="D130" s="2" t="s">
-        <v>469</v>
+        <v>68</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>474</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>68</v>
+        <v>482</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="F133" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>496</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="57.45" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>501</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="139">
-      <c r="A139" s="1" t="s">
-        <v>504</v>
+      <c r="A139" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>513</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="140">
-      <c r="A140" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F140" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="140">
+      <c r="A140" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>515</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="F140" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="141">
-      <c r="A141" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="142">
+      <c r="A141" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E141" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="142">
       <c r="A142" s="32" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="E142" s="33" t="s">
-        <v>519</v>
+        <v>525</v>
+      </c>
+      <c r="E142" s="29" t="s">
+        <v>526</v>
       </c>
       <c r="F142" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="143">
       <c r="A143" s="32" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>195</v>
+        <v>530</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="F143" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="102.2" outlineLevel="0" r="144">
       <c r="A144" s="32" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="E144" s="29" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F144" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="145">
       <c r="A145" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="B145" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>531</v>
-      </c>
-      <c r="D145" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="E145" s="29" t="s">
-        <v>533</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="B145" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="D145" s="31"/>
       <c r="F145" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="102.2" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="146">
       <c r="A146" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="B146" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="D146" s="33" t="s">
-        <v>537</v>
+        <v>539</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31" t="s">
+        <v>541</v>
       </c>
       <c r="F146" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.65" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="147">
       <c r="A147" s="32" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="D147" s="31"/>
+        <v>544</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="E147" s="29" t="s">
+        <v>546</v>
+      </c>
       <c r="F147" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="148">
-      <c r="A148" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="B148" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31" t="s">
-        <v>543</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="149">
-      <c r="A149" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="B149" s="34" t="s">
-        <v>545</v>
-      </c>
-      <c r="C149" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="D149" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="E149" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="F149" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4707,7 +4677,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4732,7 +4702,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
